--- a/position/sao_paulo.xlsx
+++ b/position/sao_paulo.xlsx
@@ -460,7 +460,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
